--- a/SQLSERVER/Insert/SANPHAM.xlsx
+++ b/SQLSERVER/Insert/SANPHAM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Van Nghia\OneDrive\Desktop\DoAn_Winform\DOAN_MonHoc\SQLSERVER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\haha\WinformC--Project\SQLSERVER\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B90B6F8-4A0A-4B71-865A-D81FDEB2BFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1378,11 +1379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W71" sqref="W57:Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,6 +1394,7 @@
     <col min="22" max="22" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3557,7 +3559,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
@@ -3592,7 +3594,7 @@
         <v>277</v>
       </c>
       <c r="Y57" s="1">
-        <v>946698350</v>
+        <v>9466983500</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>278</v>
@@ -3633,7 +3635,7 @@
         <v>280</v>
       </c>
       <c r="Y58" s="1">
-        <v>989183400</v>
+        <v>9891834001</v>
       </c>
       <c r="Z58" s="1" t="s">
         <v>281</v>
@@ -3674,13 +3676,13 @@
         <v>283</v>
       </c>
       <c r="Y59" s="1">
-        <v>274376960</v>
+        <v>2743769605</v>
       </c>
       <c r="Z59" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="144" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
@@ -3709,13 +3711,13 @@
         <v>286</v>
       </c>
       <c r="Y60" s="1">
-        <v>948675668</v>
+        <v>9486756687</v>
       </c>
       <c r="Z60" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:26" ht="144" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,13 +3746,13 @@
         <v>289</v>
       </c>
       <c r="Y61" s="1">
-        <v>911818018</v>
+        <v>9118180184</v>
       </c>
       <c r="Z61" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="144" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>24</v>
       </c>
@@ -3779,13 +3781,13 @@
         <v>292</v>
       </c>
       <c r="Y62" s="1">
-        <v>949996969</v>
+        <v>9499969694</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>242</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>295</v>
       </c>
       <c r="Y63" s="1">
-        <v>1900545469</v>
+        <v>19005454698</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>296</v>
@@ -3849,7 +3851,7 @@
         <v>298</v>
       </c>
       <c r="Y64" s="1">
-        <v>838355005</v>
+        <v>8383550057</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>299</v>
@@ -3884,7 +3886,7 @@
         <v>301</v>
       </c>
       <c r="Y65" s="1">
-        <v>902667038</v>
+        <v>9026670386</v>
       </c>
       <c r="Z65" s="1" t="s">
         <v>302</v>
@@ -3919,7 +3921,7 @@
         <v>304</v>
       </c>
       <c r="Y66" s="1">
-        <v>109183552</v>
+        <v>1091835522</v>
       </c>
       <c r="Z66" s="1" t="s">
         <v>305</v>
@@ -3977,7 +3979,7 @@
         <v>310</v>
       </c>
       <c r="Y68" s="1">
-        <v>812535789</v>
+        <v>8125357895</v>
       </c>
       <c r="Z68" s="1" t="s">
         <v>311</v>
@@ -4000,7 +4002,7 @@
         <v>313</v>
       </c>
       <c r="Y69" s="1">
-        <v>931341111</v>
+        <v>9313411114</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>314</v>
@@ -4023,7 +4025,7 @@
         <v>316</v>
       </c>
       <c r="Y70" s="1">
-        <v>283899406</v>
+        <v>2838994066</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>317</v>
@@ -4046,7 +4048,7 @@
         <v>319</v>
       </c>
       <c r="Y71" s="1">
-        <v>837517111</v>
+        <v>8375171112</v>
       </c>
       <c r="Z71" s="1" t="s">
         <v>320</v>

--- a/SQLSERVER/Insert/SANPHAM.xlsx
+++ b/SQLSERVER/Insert/SANPHAM.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Van Nghia\OneDrive\Desktop\DoAn_Winform\DOAN_MonHoc\SQLSERVER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vu Nghia\Desktop\DO_AN\WinformC--Project\SQLSERVER\Insert\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F25FC1A-AE96-4277-9EF3-081DDE06FDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1052,7 +1053,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1378,11 +1379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
